--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Module</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Install packages on desktop</t>
   </si>
 </sst>
 </file>
@@ -233,27 +236,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -281,106 +264,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -743,7 +626,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -754,7 +637,7 @@
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -810,12 +693,15 @@
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1296,24 +1182,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F42:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1321,11 +1207,12 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
     <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxh5037\OneDrive - The Home Depot\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BBE60B-CCC1-467A-98DB-ABAC6E73B121}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>Module</t>
   </si>
@@ -180,15 +181,12 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>Install packages on desktop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,16 +309,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G41" totalsRowShown="0">
-  <autoFilter ref="A1:G41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G41" totalsRowShown="0">
+  <autoFilter ref="A1:G41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Module"/>
-    <tableColumn id="2" name="Topic"/>
-    <tableColumn id="3" name="Sub_Topic_1"/>
-    <tableColumn id="4" name="Sub_Topic_2"/>
-    <tableColumn id="5" name="Due"/>
-    <tableColumn id="6" name="Status"/>
-    <tableColumn id="7" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub_Topic_1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sub_Topic_2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Due"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,25 +620,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -677,7 +675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -689,7 +687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -698,13 +696,10 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -716,19 +711,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -740,7 +735,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -752,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -764,19 +759,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -788,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -800,7 +795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -812,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -824,7 +819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -836,7 +831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -848,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -860,7 +855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -872,7 +867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -884,7 +879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -896,7 +891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -908,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -920,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -932,7 +927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -944,7 +939,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -956,7 +951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -968,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
@@ -980,7 +975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -992,7 +987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1004,7 +999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1016,7 +1011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1028,7 +1023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1040,7 +1035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1052,7 +1047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1064,7 +1059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
@@ -1076,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1088,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
@@ -1100,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1112,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1124,7 +1119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>19</v>
@@ -1138,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1148,7 +1143,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1156,7 +1151,7 @@
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1164,7 +1159,7 @@
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1172,7 +1167,7 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1204,15 +1199,17 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{B872FC76-4FC3-40C7-B584-B8861F79FF99}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{8FAA1334-D337-4D6C-BB4F-08A8AFA673C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxh5037\OneDrive - The Home Depot\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BBE60B-CCC1-467A-98DB-ABAC6E73B121}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
   <si>
     <t>Module</t>
   </si>
@@ -181,12 +181,30 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,16 +327,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G41" totalsRowShown="0">
-  <autoFilter ref="A1:G41" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G41" totalsRowShown="0">
+  <autoFilter ref="A1:G41"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Topic"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub_Topic_1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sub_Topic_2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Due"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notes"/>
+    <tableColumn id="1" name="Module"/>
+    <tableColumn id="2" name="Topic"/>
+    <tableColumn id="3" name="Sub_Topic_1"/>
+    <tableColumn id="4" name="Sub_Topic_2"/>
+    <tableColumn id="5" name="Due"/>
+    <tableColumn id="6" name="Status"/>
+    <tableColumn id="7" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,25 +638,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +679,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -675,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -687,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -699,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -711,7 +729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -723,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -735,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -747,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -759,7 +777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -768,14 +786,14 @@
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E11"/>
@@ -783,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -795,31 +813,31 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -831,7 +849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -843,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -855,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -867,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -879,7 +897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -891,7 +909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -903,7 +921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -915,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -927,7 +945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -939,7 +957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -951,7 +969,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -963,7 +981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
@@ -975,7 +993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -987,7 +1005,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -999,7 +1017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1011,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1023,7 +1041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1035,7 +1053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1047,7 +1065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1059,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
@@ -1071,7 +1089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1083,7 +1101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
@@ -1095,7 +1113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1107,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1119,7 +1137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>19</v>
@@ -1133,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1143,7 +1161,7 @@
       <c r="E41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1151,7 +1169,7 @@
       <c r="E42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1159,7 +1177,7 @@
       <c r="E43"/>
       <c r="F43"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1167,7 +1185,7 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1199,17 +1217,4364 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{B872FC76-4FC3-40C7-B584-B8861F79FF99}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{8FAA1334-D337-4D6C-BB4F-08A8AFA673C7}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D14" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J146"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <f>G4+$J$1</f>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <f>A5+$J$1</f>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:G6" si="0">B5+$J$1</f>
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <f>G5+$J$1</f>
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <f>A6+$J$1</f>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <f t="shared" ref="A7:A18" si="1">G6+$J$1</f>
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:G7" si="2">A7+$J$1</f>
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:G8" si="3">A8+$J$1</f>
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ref="B9:G9" si="4">A9+$J$1</f>
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:G10" si="5">A10+$J$1</f>
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:G11" si="6">A11+$J$1</f>
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="6"/>
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="6"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:G12" si="7">A12+$J$1</f>
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ref="B13:G13" si="8">A13+$J$1</f>
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="8"/>
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:G14" si="9">A14+$J$1</f>
+        <v>71</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="9"/>
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="9"/>
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="9"/>
+        <v>74</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="9"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:G15" si="10">A15+$J$1</f>
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="10"/>
+        <v>79</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="10"/>
+        <v>82</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="10"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ref="B16:G16" si="11">A16+$J$1</f>
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:G17" si="12">A17+$J$1</f>
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="12"/>
+        <v>93</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="12"/>
+        <v>94</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="12"/>
+        <v>96</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="12"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:G18" si="13">A18+$J$1</f>
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="13"/>
+        <v>101</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="13"/>
+        <v>102</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="13"/>
+        <v>103</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="13"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <f>G18+$J$1</f>
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <f>A19+$J$1</f>
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:G19" si="14">B19+$J$1</f>
+        <v>107</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="14"/>
+        <v>108</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="14"/>
+        <v>109</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="14"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <f>G19+$J$1</f>
+        <v>112</v>
+      </c>
+      <c r="B20">
+        <f>A20+$J$1</f>
+        <v>113</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:G20" si="15">B20+$J$1</f>
+        <v>114</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="15"/>
+        <v>115</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="15"/>
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="15"/>
+        <v>117</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="15"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <f t="shared" ref="A21:A27" si="16">G20+$J$1</f>
+        <v>119</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:G21" si="17">A21+$J$1</f>
+        <v>120</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="17"/>
+        <v>121</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="17"/>
+        <v>122</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="17"/>
+        <v>123</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="17"/>
+        <v>124</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="17"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <f t="shared" si="16"/>
+        <v>126</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:G22" si="18">A22+$J$1</f>
+        <v>127</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="18"/>
+        <v>128</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="18"/>
+        <v>129</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="18"/>
+        <v>130</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="18"/>
+        <v>131</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="18"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <f t="shared" si="16"/>
+        <v>133</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:G23" si="19">A23+$J$1</f>
+        <v>134</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="19"/>
+        <v>135</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="19"/>
+        <v>136</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="19"/>
+        <v>137</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="19"/>
+        <v>138</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="19"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <f t="shared" si="16"/>
+        <v>140</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:G24" si="20">A24+$J$1</f>
+        <v>141</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="20"/>
+        <v>142</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="20"/>
+        <v>143</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="20"/>
+        <v>144</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="20"/>
+        <v>145</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="20"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <f t="shared" si="16"/>
+        <v>147</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:G25" si="21">A25+$J$1</f>
+        <v>148</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="21"/>
+        <v>149</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="21"/>
+        <v>150</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="21"/>
+        <v>151</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="21"/>
+        <v>152</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="21"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <f t="shared" si="16"/>
+        <v>154</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:G26" si="22">A26+$J$1</f>
+        <v>155</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="22"/>
+        <v>156</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="22"/>
+        <v>157</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="22"/>
+        <v>158</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="22"/>
+        <v>159</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="22"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <f t="shared" si="16"/>
+        <v>161</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:G27" si="23">A27+$J$1</f>
+        <v>162</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="23"/>
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="23"/>
+        <v>164</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="23"/>
+        <v>165</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="23"/>
+        <v>166</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="23"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <f>G27+$J$1</f>
+        <v>168</v>
+      </c>
+      <c r="B28">
+        <f>A28+$J$1</f>
+        <v>169</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:G28" si="24">B28+$J$1</f>
+        <v>170</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="24"/>
+        <v>171</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="24"/>
+        <v>172</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="24"/>
+        <v>173</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="24"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <f>G28+$J$1</f>
+        <v>175</v>
+      </c>
+      <c r="B29">
+        <f>A29+$J$1</f>
+        <v>176</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:G29" si="25">B29+$J$1</f>
+        <v>177</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="25"/>
+        <v>178</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="25"/>
+        <v>179</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="25"/>
+        <v>180</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="25"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <f t="shared" ref="A30:A34" si="26">G29+$J$1</f>
+        <v>182</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:G30" si="27">A30+$J$1</f>
+        <v>183</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="27"/>
+        <v>184</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="27"/>
+        <v>185</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="27"/>
+        <v>186</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="27"/>
+        <v>187</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="27"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <f t="shared" si="26"/>
+        <v>189</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:G31" si="28">A31+$J$1</f>
+        <v>190</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="28"/>
+        <v>191</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="28"/>
+        <v>192</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="28"/>
+        <v>193</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="28"/>
+        <v>194</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="28"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <f t="shared" si="26"/>
+        <v>196</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:G32" si="29">A32+$J$1</f>
+        <v>197</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="29"/>
+        <v>198</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="29"/>
+        <v>199</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="29"/>
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="29"/>
+        <v>201</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="29"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <f t="shared" si="26"/>
+        <v>203</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:G33" si="30">A33+$J$1</f>
+        <v>204</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="30"/>
+        <v>205</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="30"/>
+        <v>206</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="30"/>
+        <v>207</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="30"/>
+        <v>208</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="30"/>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <f t="shared" si="26"/>
+        <v>210</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:G34" si="31">A34+$J$1</f>
+        <v>211</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="31"/>
+        <v>212</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="31"/>
+        <v>213</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="31"/>
+        <v>214</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="31"/>
+        <v>215</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="31"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <f>G34+$J$1</f>
+        <v>217</v>
+      </c>
+      <c r="B35">
+        <f>A35+$J$1</f>
+        <v>218</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:G35" si="32">B35+$J$1</f>
+        <v>219</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="32"/>
+        <v>220</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="32"/>
+        <v>221</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="32"/>
+        <v>222</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="32"/>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <f>G35+$J$1</f>
+        <v>224</v>
+      </c>
+      <c r="B36">
+        <f>A36+$J$1</f>
+        <v>225</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:G36" si="33">B36+$J$1</f>
+        <v>226</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="33"/>
+        <v>227</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="33"/>
+        <v>228</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="33"/>
+        <v>229</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="33"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <f t="shared" ref="A37:A41" si="34">G36+$J$1</f>
+        <v>231</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:G37" si="35">A37+$J$1</f>
+        <v>232</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="35"/>
+        <v>233</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="35"/>
+        <v>234</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="35"/>
+        <v>235</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="35"/>
+        <v>236</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="35"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <f t="shared" si="34"/>
+        <v>238</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:G38" si="36">A38+$J$1</f>
+        <v>239</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="36"/>
+        <v>240</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="36"/>
+        <v>241</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="36"/>
+        <v>242</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="36"/>
+        <v>243</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="36"/>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <f t="shared" si="34"/>
+        <v>245</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39:G39" si="37">A39+$J$1</f>
+        <v>246</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="37"/>
+        <v>247</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="37"/>
+        <v>248</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="37"/>
+        <v>249</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="37"/>
+        <v>250</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="37"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <f t="shared" si="34"/>
+        <v>252</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40:G40" si="38">A40+$J$1</f>
+        <v>253</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="38"/>
+        <v>254</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="38"/>
+        <v>255</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="38"/>
+        <v>256</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="38"/>
+        <v>257</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="38"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <f t="shared" si="34"/>
+        <v>259</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:G41" si="39">A41+$J$1</f>
+        <v>260</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="39"/>
+        <v>261</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="39"/>
+        <v>262</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="39"/>
+        <v>263</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="39"/>
+        <v>264</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="39"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <f>G41+$J$1</f>
+        <v>266</v>
+      </c>
+      <c r="B42">
+        <f>A42+$J$1</f>
+        <v>267</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:G42" si="40">B42+$J$1</f>
+        <v>268</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="40"/>
+        <v>269</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="40"/>
+        <v>270</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="40"/>
+        <v>271</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="40"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <f>G42+$J$1</f>
+        <v>273</v>
+      </c>
+      <c r="B43">
+        <f>A43+$J$1</f>
+        <v>274</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:G43" si="41">B43+$J$1</f>
+        <v>275</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="41"/>
+        <v>276</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="41"/>
+        <v>277</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="41"/>
+        <v>278</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="41"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <f t="shared" ref="A44:A49" si="42">G43+$J$1</f>
+        <v>280</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44:G44" si="43">A44+$J$1</f>
+        <v>281</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="43"/>
+        <v>282</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="43"/>
+        <v>283</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="43"/>
+        <v>284</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="43"/>
+        <v>285</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="43"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <f t="shared" si="42"/>
+        <v>287</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:G45" si="44">A45+$J$1</f>
+        <v>288</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="44"/>
+        <v>289</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="44"/>
+        <v>290</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="44"/>
+        <v>291</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="44"/>
+        <v>292</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="44"/>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <f t="shared" si="42"/>
+        <v>294</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:G46" si="45">A46+$J$1</f>
+        <v>295</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="45"/>
+        <v>296</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="45"/>
+        <v>297</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="45"/>
+        <v>298</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="45"/>
+        <v>299</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="45"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <f t="shared" si="42"/>
+        <v>301</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47:G47" si="46">A47+$J$1</f>
+        <v>302</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="46"/>
+        <v>303</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="46"/>
+        <v>304</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="46"/>
+        <v>305</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="46"/>
+        <v>306</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="46"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <f t="shared" si="42"/>
+        <v>308</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48:G48" si="47">A48+$J$1</f>
+        <v>309</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="47"/>
+        <v>310</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="47"/>
+        <v>311</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="47"/>
+        <v>312</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="47"/>
+        <v>313</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="47"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <f t="shared" si="42"/>
+        <v>315</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:G49" si="48">A49+$J$1</f>
+        <v>316</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="48"/>
+        <v>317</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="48"/>
+        <v>318</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="48"/>
+        <v>319</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="48"/>
+        <v>320</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="48"/>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <f>G49+$J$1</f>
+        <v>322</v>
+      </c>
+      <c r="B50">
+        <f>A50+$J$1</f>
+        <v>323</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:G50" si="49">B50+$J$1</f>
+        <v>324</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="49"/>
+        <v>325</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="49"/>
+        <v>326</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="49"/>
+        <v>327</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="49"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <f>G50+$J$1</f>
+        <v>329</v>
+      </c>
+      <c r="B51">
+        <f>A51+$J$1</f>
+        <v>330</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51:G51" si="50">B51+$J$1</f>
+        <v>331</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="50"/>
+        <v>332</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="50"/>
+        <v>333</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="50"/>
+        <v>334</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="50"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <f t="shared" ref="A52:A63" si="51">G51+$J$1</f>
+        <v>336</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52:G52" si="52">A52+$J$1</f>
+        <v>337</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="52"/>
+        <v>338</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="52"/>
+        <v>339</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="52"/>
+        <v>340</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="52"/>
+        <v>341</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="52"/>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <f t="shared" si="51"/>
+        <v>343</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:G53" si="53">A53+$J$1</f>
+        <v>344</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="53"/>
+        <v>345</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="53"/>
+        <v>346</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="53"/>
+        <v>347</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="53"/>
+        <v>348</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="53"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <f t="shared" si="51"/>
+        <v>350</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54:G54" si="54">A54+$J$1</f>
+        <v>351</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="54"/>
+        <v>352</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="54"/>
+        <v>353</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="54"/>
+        <v>354</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="54"/>
+        <v>355</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="54"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <f t="shared" si="51"/>
+        <v>357</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55:G55" si="55">A55+$J$1</f>
+        <v>358</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="55"/>
+        <v>359</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="55"/>
+        <v>360</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="55"/>
+        <v>361</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="55"/>
+        <v>362</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="55"/>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <f t="shared" si="51"/>
+        <v>364</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:G56" si="56">A56+$J$1</f>
+        <v>365</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="56"/>
+        <v>366</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="56"/>
+        <v>367</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="56"/>
+        <v>368</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="56"/>
+        <v>369</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="56"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <f t="shared" si="51"/>
+        <v>371</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:G57" si="57">A57+$J$1</f>
+        <v>372</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="57"/>
+        <v>373</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="57"/>
+        <v>374</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="57"/>
+        <v>375</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="57"/>
+        <v>376</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="57"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <f t="shared" si="51"/>
+        <v>378</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58:G58" si="58">A58+$J$1</f>
+        <v>379</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="58"/>
+        <v>380</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="58"/>
+        <v>381</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="58"/>
+        <v>382</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="58"/>
+        <v>383</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="58"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <f t="shared" si="51"/>
+        <v>385</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:G59" si="59">A59+$J$1</f>
+        <v>386</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="59"/>
+        <v>387</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="59"/>
+        <v>388</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="59"/>
+        <v>389</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="59"/>
+        <v>390</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="59"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <f t="shared" si="51"/>
+        <v>392</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:G60" si="60">A60+$J$1</f>
+        <v>393</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="60"/>
+        <v>394</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="60"/>
+        <v>395</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="60"/>
+        <v>396</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="60"/>
+        <v>397</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="60"/>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <f t="shared" si="51"/>
+        <v>399</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:G61" si="61">A61+$J$1</f>
+        <v>400</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="61"/>
+        <v>401</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="61"/>
+        <v>402</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="61"/>
+        <v>403</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="61"/>
+        <v>404</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="61"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <f t="shared" si="51"/>
+        <v>406</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62:G62" si="62">A62+$J$1</f>
+        <v>407</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="62"/>
+        <v>408</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="62"/>
+        <v>409</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="62"/>
+        <v>410</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="62"/>
+        <v>411</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="62"/>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <f t="shared" si="51"/>
+        <v>413</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63:G63" si="63">A63+$J$1</f>
+        <v>414</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="63"/>
+        <v>415</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="63"/>
+        <v>416</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="63"/>
+        <v>417</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="63"/>
+        <v>418</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="63"/>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <f>G63+$J$1</f>
+        <v>420</v>
+      </c>
+      <c r="B64">
+        <f>A64+$J$1</f>
+        <v>421</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:G64" si="64">B64+$J$1</f>
+        <v>422</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="64"/>
+        <v>423</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="64"/>
+        <v>424</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="64"/>
+        <v>425</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="64"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <f>G64+$J$1</f>
+        <v>427</v>
+      </c>
+      <c r="B65">
+        <f>A65+$J$1</f>
+        <v>428</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:G65" si="65">B65+$J$1</f>
+        <v>429</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="65"/>
+        <v>430</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="65"/>
+        <v>431</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="65"/>
+        <v>432</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="65"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <f t="shared" ref="A66:A77" si="66">G65+$J$1</f>
+        <v>434</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:G66" si="67">A66+$J$1</f>
+        <v>435</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="67"/>
+        <v>436</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="67"/>
+        <v>437</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="67"/>
+        <v>438</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="67"/>
+        <v>439</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="67"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <f t="shared" si="66"/>
+        <v>441</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:G67" si="68">A67+$J$1</f>
+        <v>442</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="68"/>
+        <v>443</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="68"/>
+        <v>444</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="68"/>
+        <v>445</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="68"/>
+        <v>446</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="68"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <f t="shared" si="66"/>
+        <v>448</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:G68" si="69">A68+$J$1</f>
+        <v>449</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="69"/>
+        <v>450</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="69"/>
+        <v>451</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="69"/>
+        <v>452</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="69"/>
+        <v>453</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="69"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <f t="shared" si="66"/>
+        <v>455</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:G69" si="70">A69+$J$1</f>
+        <v>456</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="70"/>
+        <v>457</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="70"/>
+        <v>458</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="70"/>
+        <v>459</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="70"/>
+        <v>460</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="70"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <f t="shared" si="66"/>
+        <v>462</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70:G70" si="71">A70+$J$1</f>
+        <v>463</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="71"/>
+        <v>464</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="71"/>
+        <v>465</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="71"/>
+        <v>466</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="71"/>
+        <v>467</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="71"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <f t="shared" si="66"/>
+        <v>469</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:G71" si="72">A71+$J$1</f>
+        <v>470</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="72"/>
+        <v>471</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="72"/>
+        <v>472</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="72"/>
+        <v>473</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="72"/>
+        <v>474</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="72"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <f t="shared" si="66"/>
+        <v>476</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:G72" si="73">A72+$J$1</f>
+        <v>477</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="73"/>
+        <v>478</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="73"/>
+        <v>479</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="73"/>
+        <v>480</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="73"/>
+        <v>481</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="73"/>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <f t="shared" si="66"/>
+        <v>483</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ref="B73:G73" si="74">A73+$J$1</f>
+        <v>484</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="74"/>
+        <v>485</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="74"/>
+        <v>486</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="74"/>
+        <v>487</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="74"/>
+        <v>488</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="74"/>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <f t="shared" si="66"/>
+        <v>490</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:G74" si="75">A74+$J$1</f>
+        <v>491</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="75"/>
+        <v>492</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="75"/>
+        <v>493</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="75"/>
+        <v>494</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="75"/>
+        <v>495</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="75"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <f t="shared" si="66"/>
+        <v>497</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75:G75" si="76">A75+$J$1</f>
+        <v>498</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="76"/>
+        <v>499</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="76"/>
+        <v>500</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="76"/>
+        <v>501</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="76"/>
+        <v>502</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="76"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <f t="shared" si="66"/>
+        <v>504</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76:G76" si="77">A76+$J$1</f>
+        <v>505</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="77"/>
+        <v>506</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="77"/>
+        <v>507</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="77"/>
+        <v>508</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="77"/>
+        <v>509</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="77"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <f t="shared" si="66"/>
+        <v>511</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:G77" si="78">A77+$J$1</f>
+        <v>512</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="78"/>
+        <v>513</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="78"/>
+        <v>514</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="78"/>
+        <v>515</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="78"/>
+        <v>516</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="78"/>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <f>G77+$J$1</f>
+        <v>518</v>
+      </c>
+      <c r="B78">
+        <f>A78+$J$1</f>
+        <v>519</v>
+      </c>
+      <c r="C78">
+        <f t="shared" ref="C78:G78" si="79">B78+$J$1</f>
+        <v>520</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="79"/>
+        <v>521</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="79"/>
+        <v>522</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="79"/>
+        <v>523</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="79"/>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <f>G78+$J$1</f>
+        <v>525</v>
+      </c>
+      <c r="B79">
+        <f>A79+$J$1</f>
+        <v>526</v>
+      </c>
+      <c r="C79">
+        <f t="shared" ref="C79:G79" si="80">B79+$J$1</f>
+        <v>527</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="80"/>
+        <v>528</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="80"/>
+        <v>529</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="80"/>
+        <v>530</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="80"/>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <f>G79+$J$1</f>
+        <v>532</v>
+      </c>
+      <c r="B80">
+        <f>A80+$J$1</f>
+        <v>533</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80:G80" si="81">B80+$J$1</f>
+        <v>534</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="81"/>
+        <v>535</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="81"/>
+        <v>536</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="81"/>
+        <v>537</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="81"/>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <f t="shared" ref="A81:A92" si="82">G80+$J$1</f>
+        <v>539</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:G81" si="83">A81+$J$1</f>
+        <v>540</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="83"/>
+        <v>541</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="83"/>
+        <v>542</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="83"/>
+        <v>543</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="83"/>
+        <v>544</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="83"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <f t="shared" si="82"/>
+        <v>546</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ref="B82:G82" si="84">A82+$J$1</f>
+        <v>547</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="84"/>
+        <v>548</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="84"/>
+        <v>549</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="84"/>
+        <v>550</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="84"/>
+        <v>551</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="84"/>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <f t="shared" si="82"/>
+        <v>553</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:G83" si="85">A83+$J$1</f>
+        <v>554</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="85"/>
+        <v>555</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="85"/>
+        <v>556</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="85"/>
+        <v>557</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="85"/>
+        <v>558</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="85"/>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <f t="shared" si="82"/>
+        <v>560</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ref="B84:G84" si="86">A84+$J$1</f>
+        <v>561</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="86"/>
+        <v>562</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="86"/>
+        <v>563</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="86"/>
+        <v>564</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="86"/>
+        <v>565</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="86"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <f t="shared" si="82"/>
+        <v>567</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ref="B85:G85" si="87">A85+$J$1</f>
+        <v>568</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="87"/>
+        <v>569</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="87"/>
+        <v>570</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="87"/>
+        <v>571</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="87"/>
+        <v>572</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="87"/>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <f t="shared" si="82"/>
+        <v>574</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86:G86" si="88">A86+$J$1</f>
+        <v>575</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="88"/>
+        <v>576</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="88"/>
+        <v>577</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="88"/>
+        <v>578</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="88"/>
+        <v>579</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="88"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <f t="shared" si="82"/>
+        <v>581</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ref="B87:G87" si="89">A87+$J$1</f>
+        <v>582</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="89"/>
+        <v>583</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="89"/>
+        <v>584</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="89"/>
+        <v>585</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="89"/>
+        <v>586</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="89"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <f t="shared" si="82"/>
+        <v>588</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ref="B88:G88" si="90">A88+$J$1</f>
+        <v>589</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="90"/>
+        <v>590</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="90"/>
+        <v>591</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="90"/>
+        <v>592</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="90"/>
+        <v>593</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="90"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <f t="shared" si="82"/>
+        <v>595</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ref="B89:G89" si="91">A89+$J$1</f>
+        <v>596</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="91"/>
+        <v>597</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="91"/>
+        <v>598</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="91"/>
+        <v>599</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="91"/>
+        <v>600</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="91"/>
+        <v>601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <f t="shared" si="82"/>
+        <v>602</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90:G90" si="92">A90+$J$1</f>
+        <v>603</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="92"/>
+        <v>604</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="92"/>
+        <v>605</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="92"/>
+        <v>606</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="92"/>
+        <v>607</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="92"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <f t="shared" si="82"/>
+        <v>609</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91:G91" si="93">A91+$J$1</f>
+        <v>610</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="93"/>
+        <v>611</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="93"/>
+        <v>612</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="93"/>
+        <v>613</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="93"/>
+        <v>614</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="93"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <f t="shared" si="82"/>
+        <v>616</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92:G92" si="94">A92+$J$1</f>
+        <v>617</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="94"/>
+        <v>618</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="94"/>
+        <v>619</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="94"/>
+        <v>620</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="94"/>
+        <v>621</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="94"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <f>G92+$J$1</f>
+        <v>623</v>
+      </c>
+      <c r="B93">
+        <f>A93+$J$1</f>
+        <v>624</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:G93" si="95">B93+$J$1</f>
+        <v>625</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="95"/>
+        <v>626</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="95"/>
+        <v>627</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="95"/>
+        <v>628</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="95"/>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <f>G93+$J$1</f>
+        <v>630</v>
+      </c>
+      <c r="B94">
+        <f>A94+$J$1</f>
+        <v>631</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ref="C94:G94" si="96">B94+$J$1</f>
+        <v>632</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="96"/>
+        <v>633</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="96"/>
+        <v>634</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="96"/>
+        <v>635</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="96"/>
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <f>G94+$J$1</f>
+        <v>637</v>
+      </c>
+      <c r="B95">
+        <f>A95+$J$1</f>
+        <v>638</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ref="C95:G95" si="97">B95+$J$1</f>
+        <v>639</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="97"/>
+        <v>640</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="97"/>
+        <v>641</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="97"/>
+        <v>642</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="97"/>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <f>G95+$J$1</f>
+        <v>644</v>
+      </c>
+      <c r="B96">
+        <f>A96+$J$1</f>
+        <v>645</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:G96" si="98">B96+$J$1</f>
+        <v>646</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="98"/>
+        <v>647</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="98"/>
+        <v>648</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="98"/>
+        <v>649</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="98"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <f t="shared" ref="A97:A108" si="99">G96+$J$1</f>
+        <v>651</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97:G97" si="100">A97+$J$1</f>
+        <v>652</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="100"/>
+        <v>653</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="100"/>
+        <v>654</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="100"/>
+        <v>655</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="100"/>
+        <v>656</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="100"/>
+        <v>657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <f t="shared" si="99"/>
+        <v>658</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98:G98" si="101">A98+$J$1</f>
+        <v>659</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="101"/>
+        <v>660</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="101"/>
+        <v>661</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="101"/>
+        <v>662</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="101"/>
+        <v>663</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="101"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <f t="shared" si="99"/>
+        <v>665</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99:G99" si="102">A99+$J$1</f>
+        <v>666</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="102"/>
+        <v>667</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="102"/>
+        <v>668</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="102"/>
+        <v>669</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="102"/>
+        <v>670</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="102"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <f t="shared" si="99"/>
+        <v>672</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100:G100" si="103">A100+$J$1</f>
+        <v>673</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="103"/>
+        <v>674</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="103"/>
+        <v>675</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="103"/>
+        <v>676</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="103"/>
+        <v>677</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="103"/>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <f t="shared" si="99"/>
+        <v>679</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101:G101" si="104">A101+$J$1</f>
+        <v>680</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="104"/>
+        <v>681</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="104"/>
+        <v>682</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="104"/>
+        <v>683</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="104"/>
+        <v>684</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="104"/>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <f t="shared" si="99"/>
+        <v>686</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102:G102" si="105">A102+$J$1</f>
+        <v>687</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="105"/>
+        <v>688</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="105"/>
+        <v>689</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="105"/>
+        <v>690</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="105"/>
+        <v>691</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="105"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <f t="shared" si="99"/>
+        <v>693</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103:G103" si="106">A103+$J$1</f>
+        <v>694</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="106"/>
+        <v>695</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="106"/>
+        <v>696</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="106"/>
+        <v>697</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="106"/>
+        <v>698</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="106"/>
+        <v>699</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <f t="shared" si="99"/>
+        <v>700</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104:G104" si="107">A104+$J$1</f>
+        <v>701</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="107"/>
+        <v>702</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="107"/>
+        <v>703</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="107"/>
+        <v>704</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="107"/>
+        <v>705</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="107"/>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <f t="shared" si="99"/>
+        <v>707</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105:G105" si="108">A105+$J$1</f>
+        <v>708</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="108"/>
+        <v>709</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="108"/>
+        <v>710</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="108"/>
+        <v>711</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="108"/>
+        <v>712</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="108"/>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <f t="shared" si="99"/>
+        <v>714</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106:G106" si="109">A106+$J$1</f>
+        <v>715</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="109"/>
+        <v>716</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="109"/>
+        <v>717</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="109"/>
+        <v>718</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="109"/>
+        <v>719</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="109"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <f t="shared" si="99"/>
+        <v>721</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107:G107" si="110">A107+$J$1</f>
+        <v>722</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="110"/>
+        <v>723</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="110"/>
+        <v>724</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="110"/>
+        <v>725</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="110"/>
+        <v>726</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="110"/>
+        <v>727</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <f t="shared" si="99"/>
+        <v>728</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108:G108" si="111">A108+$J$1</f>
+        <v>729</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="111"/>
+        <v>730</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="111"/>
+        <v>731</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="111"/>
+        <v>732</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="111"/>
+        <v>733</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="111"/>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <f>G108+$J$1</f>
+        <v>735</v>
+      </c>
+      <c r="B109">
+        <f>A109+$J$1</f>
+        <v>736</v>
+      </c>
+      <c r="C109">
+        <f t="shared" ref="C109:G109" si="112">B109+$J$1</f>
+        <v>737</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="112"/>
+        <v>738</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="112"/>
+        <v>739</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="112"/>
+        <v>740</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="112"/>
+        <v>741</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <f>G109+$J$1</f>
+        <v>742</v>
+      </c>
+      <c r="B110">
+        <f>A110+$J$1</f>
+        <v>743</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ref="C110:G110" si="113">B110+$J$1</f>
+        <v>744</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="113"/>
+        <v>745</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="113"/>
+        <v>746</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="113"/>
+        <v>747</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="113"/>
+        <v>748</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <f t="shared" ref="A111:A112" si="114">G110+$J$1</f>
+        <v>749</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ref="B111:G111" si="115">A111+$J$1</f>
+        <v>750</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="115"/>
+        <v>751</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="115"/>
+        <v>752</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="115"/>
+        <v>753</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="115"/>
+        <v>754</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="115"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <f t="shared" si="114"/>
+        <v>756</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ref="B112:G112" si="116">A112+$J$1</f>
+        <v>757</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="116"/>
+        <v>758</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="116"/>
+        <v>759</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="116"/>
+        <v>760</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="116"/>
+        <v>761</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="116"/>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <f>G112+$J$1</f>
+        <v>763</v>
+      </c>
+      <c r="B113">
+        <f>A113+$J$1</f>
+        <v>764</v>
+      </c>
+      <c r="C113">
+        <f t="shared" ref="C113:G113" si="117">B113+$J$1</f>
+        <v>765</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="117"/>
+        <v>766</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="117"/>
+        <v>767</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="117"/>
+        <v>768</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="117"/>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <f>G113+$J$1</f>
+        <v>770</v>
+      </c>
+      <c r="B114">
+        <f>A114+$J$1</f>
+        <v>771</v>
+      </c>
+      <c r="C114">
+        <f t="shared" ref="C114:G114" si="118">B114+$J$1</f>
+        <v>772</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="118"/>
+        <v>773</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="118"/>
+        <v>774</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="118"/>
+        <v>775</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="118"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <f t="shared" ref="A115:A126" si="119">G114+$J$1</f>
+        <v>777</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ref="B115:G115" si="120">A115+$J$1</f>
+        <v>778</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="120"/>
+        <v>779</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="120"/>
+        <v>780</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="120"/>
+        <v>781</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="120"/>
+        <v>782</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="120"/>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <f t="shared" si="119"/>
+        <v>784</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ref="B116:G116" si="121">A116+$J$1</f>
+        <v>785</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="121"/>
+        <v>786</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="121"/>
+        <v>787</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="121"/>
+        <v>788</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="121"/>
+        <v>789</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="121"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <f t="shared" si="119"/>
+        <v>791</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ref="B117:G117" si="122">A117+$J$1</f>
+        <v>792</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="122"/>
+        <v>793</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="122"/>
+        <v>794</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="122"/>
+        <v>795</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="122"/>
+        <v>796</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="122"/>
+        <v>797</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <f t="shared" si="119"/>
+        <v>798</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ref="B118:G118" si="123">A118+$J$1</f>
+        <v>799</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="123"/>
+        <v>800</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="123"/>
+        <v>801</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="123"/>
+        <v>802</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="123"/>
+        <v>803</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="123"/>
+        <v>804</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <f t="shared" si="119"/>
+        <v>805</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ref="B119:G119" si="124">A119+$J$1</f>
+        <v>806</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="124"/>
+        <v>807</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="124"/>
+        <v>808</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="124"/>
+        <v>809</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="124"/>
+        <v>810</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="124"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <f t="shared" si="119"/>
+        <v>812</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ref="B120:G120" si="125">A120+$J$1</f>
+        <v>813</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="125"/>
+        <v>814</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="125"/>
+        <v>815</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="125"/>
+        <v>816</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="125"/>
+        <v>817</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="125"/>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <f t="shared" si="119"/>
+        <v>819</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ref="B121:G121" si="126">A121+$J$1</f>
+        <v>820</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="126"/>
+        <v>821</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="126"/>
+        <v>822</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="126"/>
+        <v>823</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="126"/>
+        <v>824</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="126"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <f t="shared" si="119"/>
+        <v>826</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ref="B122:G122" si="127">A122+$J$1</f>
+        <v>827</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="127"/>
+        <v>828</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="127"/>
+        <v>829</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="127"/>
+        <v>830</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="127"/>
+        <v>831</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="127"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <f t="shared" si="119"/>
+        <v>833</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ref="B123:G123" si="128">A123+$J$1</f>
+        <v>834</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="128"/>
+        <v>835</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="128"/>
+        <v>836</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="128"/>
+        <v>837</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="128"/>
+        <v>838</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="128"/>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <f t="shared" si="119"/>
+        <v>840</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ref="B124:G124" si="129">A124+$J$1</f>
+        <v>841</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="129"/>
+        <v>842</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="129"/>
+        <v>843</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="129"/>
+        <v>844</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="129"/>
+        <v>845</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="129"/>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <f t="shared" si="119"/>
+        <v>847</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ref="B125:G125" si="130">A125+$J$1</f>
+        <v>848</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="130"/>
+        <v>849</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="130"/>
+        <v>850</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="130"/>
+        <v>851</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="130"/>
+        <v>852</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="130"/>
+        <v>853</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <f t="shared" si="119"/>
+        <v>854</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ref="B126:G126" si="131">A126+$J$1</f>
+        <v>855</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="131"/>
+        <v>856</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="131"/>
+        <v>857</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="131"/>
+        <v>858</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="131"/>
+        <v>859</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="131"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <f>G126+$J$1</f>
+        <v>861</v>
+      </c>
+      <c r="B127">
+        <f>A127+$J$1</f>
+        <v>862</v>
+      </c>
+      <c r="C127">
+        <f t="shared" ref="C127:G127" si="132">B127+$J$1</f>
+        <v>863</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="132"/>
+        <v>864</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="132"/>
+        <v>865</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="132"/>
+        <v>866</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="132"/>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <f>G127+$J$1</f>
+        <v>868</v>
+      </c>
+      <c r="B128">
+        <f>A128+$J$1</f>
+        <v>869</v>
+      </c>
+      <c r="C128">
+        <f t="shared" ref="C128:G128" si="133">B128+$J$1</f>
+        <v>870</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="133"/>
+        <v>871</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="133"/>
+        <v>872</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="133"/>
+        <v>873</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="133"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <f t="shared" ref="A129" si="134">G128+$J$1</f>
+        <v>875</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ref="B129:G129" si="135">A129+$J$1</f>
+        <v>876</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="135"/>
+        <v>877</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="135"/>
+        <v>878</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="135"/>
+        <v>879</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="135"/>
+        <v>880</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="135"/>
+        <v>881</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <f>G129+$J$1</f>
+        <v>882</v>
+      </c>
+      <c r="B130">
+        <f>A130+$J$1</f>
+        <v>883</v>
+      </c>
+      <c r="C130">
+        <f t="shared" ref="C130:G130" si="136">B130+$J$1</f>
+        <v>884</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="136"/>
+        <v>885</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="136"/>
+        <v>886</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="136"/>
+        <v>887</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="136"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <f>G130+$J$1</f>
+        <v>889</v>
+      </c>
+      <c r="B131">
+        <f>A131+$J$1</f>
+        <v>890</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:G131" si="137">B131+$J$1</f>
+        <v>891</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="137"/>
+        <v>892</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="137"/>
+        <v>893</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="137"/>
+        <v>894</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="137"/>
+        <v>895</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <f t="shared" ref="A132:A141" si="138">G131+$J$1</f>
+        <v>896</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:G132" si="139">A132+$J$1</f>
+        <v>897</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="139"/>
+        <v>898</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="139"/>
+        <v>899</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="139"/>
+        <v>900</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="139"/>
+        <v>901</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="139"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <f t="shared" si="138"/>
+        <v>903</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ref="B133:G133" si="140">A133+$J$1</f>
+        <v>904</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="140"/>
+        <v>905</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="140"/>
+        <v>906</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="140"/>
+        <v>907</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="140"/>
+        <v>908</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="140"/>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <f t="shared" si="138"/>
+        <v>910</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134:G134" si="141">A134+$J$1</f>
+        <v>911</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="141"/>
+        <v>912</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="141"/>
+        <v>913</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="141"/>
+        <v>914</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="141"/>
+        <v>915</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="141"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <f t="shared" si="138"/>
+        <v>917</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ref="B135:G135" si="142">A135+$J$1</f>
+        <v>918</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="142"/>
+        <v>919</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="142"/>
+        <v>920</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="142"/>
+        <v>921</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="142"/>
+        <v>922</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="142"/>
+        <v>923</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <f t="shared" si="138"/>
+        <v>924</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ref="B136:G136" si="143">A136+$J$1</f>
+        <v>925</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="143"/>
+        <v>926</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="143"/>
+        <v>927</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="143"/>
+        <v>928</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="143"/>
+        <v>929</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="143"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <f t="shared" si="138"/>
+        <v>931</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ref="B137:G137" si="144">A137+$J$1</f>
+        <v>932</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="144"/>
+        <v>933</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="144"/>
+        <v>934</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="144"/>
+        <v>935</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="144"/>
+        <v>936</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="144"/>
+        <v>937</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <f t="shared" si="138"/>
+        <v>938</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ref="B138:G138" si="145">A138+$J$1</f>
+        <v>939</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="145"/>
+        <v>940</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="145"/>
+        <v>941</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="145"/>
+        <v>942</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="145"/>
+        <v>943</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="145"/>
+        <v>944</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <f t="shared" si="138"/>
+        <v>945</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ref="B139:G139" si="146">A139+$J$1</f>
+        <v>946</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="146"/>
+        <v>947</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="146"/>
+        <v>948</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="146"/>
+        <v>949</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="146"/>
+        <v>950</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="146"/>
+        <v>951</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <f t="shared" si="138"/>
+        <v>952</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ref="B140:G140" si="147">A140+$J$1</f>
+        <v>953</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="147"/>
+        <v>954</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="147"/>
+        <v>955</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="147"/>
+        <v>956</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="147"/>
+        <v>957</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="147"/>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <f t="shared" si="138"/>
+        <v>959</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ref="B141:G141" si="148">A141+$J$1</f>
+        <v>960</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="148"/>
+        <v>961</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="148"/>
+        <v>962</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="148"/>
+        <v>963</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="148"/>
+        <v>964</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="148"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <f>G141+$J$1</f>
+        <v>966</v>
+      </c>
+      <c r="B142">
+        <f>A142+$J$1</f>
+        <v>967</v>
+      </c>
+      <c r="C142">
+        <f t="shared" ref="C142:G142" si="149">B142+$J$1</f>
+        <v>968</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="149"/>
+        <v>969</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="149"/>
+        <v>970</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="149"/>
+        <v>971</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="149"/>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <f>G142+$J$1</f>
+        <v>973</v>
+      </c>
+      <c r="B143">
+        <f>A143+$J$1</f>
+        <v>974</v>
+      </c>
+      <c r="C143">
+        <f t="shared" ref="C143:G143" si="150">B143+$J$1</f>
+        <v>975</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="150"/>
+        <v>976</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="150"/>
+        <v>977</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="150"/>
+        <v>978</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="150"/>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <f>G143+$J$1</f>
+        <v>980</v>
+      </c>
+      <c r="B144">
+        <f>A144+$J$1</f>
+        <v>981</v>
+      </c>
+      <c r="C144">
+        <f t="shared" ref="C144:G144" si="151">B144+$J$1</f>
+        <v>982</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="151"/>
+        <v>983</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="151"/>
+        <v>984</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="151"/>
+        <v>985</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="151"/>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <f>G144+$J$1</f>
+        <v>987</v>
+      </c>
+      <c r="B145">
+        <f>A145+$J$1</f>
+        <v>988</v>
+      </c>
+      <c r="C145">
+        <f t="shared" ref="C145:G145" si="152">B145+$J$1</f>
+        <v>989</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="152"/>
+        <v>990</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="152"/>
+        <v>991</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="152"/>
+        <v>992</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="152"/>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <f t="shared" ref="A146" si="153">G145+$J$1</f>
+        <v>994</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ref="B146:G146" si="154">A146+$J$1</f>
+        <v>995</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="154"/>
+        <v>996</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="154"/>
+        <v>997</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="154"/>
+        <v>998</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="154"/>
+        <v>999</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="154"/>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,7 +774,7 @@
       <c r="D9"/>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -798,7 +798,7 @@
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">

--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxh5037\OneDrive - The Home Depot\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776A57A-5C44-4ED9-936A-668691EFC665}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>Module</t>
   </si>
@@ -199,12 +205,21 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Part 0</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,11 +270,11 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -275,11 +290,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -327,16 +342,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G41" totalsRowShown="0">
-  <autoFilter ref="A1:G41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Module"/>
-    <tableColumn id="2" name="Topic"/>
-    <tableColumn id="3" name="Sub_Topic_1"/>
-    <tableColumn id="4" name="Sub_Topic_2"/>
-    <tableColumn id="5" name="Due"/>
-    <tableColumn id="6" name="Status"/>
-    <tableColumn id="7" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub_Topic_1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sub_Topic_2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Due"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,25 +653,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,7 +694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -693,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -705,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -717,7 +732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -729,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -741,7 +756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -753,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -765,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -777,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -789,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -801,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -813,7 +828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -825,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -837,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -846,14 +861,14 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E16"/>
@@ -861,11 +876,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E17"/>
@@ -873,7 +888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -885,19 +900,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -909,7 +924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -921,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -933,7 +948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -945,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -957,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -969,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -981,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
@@ -993,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1005,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1017,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1029,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1041,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1053,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1065,7 +1080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1077,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
@@ -1089,7 +1104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1101,7 +1116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
@@ -1113,7 +1128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1125,7 +1140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1137,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>19</v>
@@ -1148,44 +1163,56 @@
         <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41"/>
       <c r="B41"/>
-      <c r="C41"/>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
       <c r="D41"/>
       <c r="E41"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
-      <c r="C42"/>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
-      <c r="C43"/>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
       <c r="D43"/>
       <c r="E43"/>
-      <c r="F43"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44"/>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1193,8 +1220,32 @@
       <c r="E45"/>
       <c r="F45"/>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="F42:F1048576">
+  <conditionalFormatting sqref="F45:F1048576">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
@@ -1206,46 +1257,49 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Not Started"</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Completed"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"WIP"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Completed"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Not Started"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D14" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{A84CFE0E-FA02-4A39-B2E8-3B208C523982}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{082B04D0-A85C-411D-A2AD-3A4399EFCA13}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{CABB85A8-5AF7-436C-830A-E690BA8B4357}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1271,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1294,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1314,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>G4+$J$1</f>
         <v>7</v>
@@ -1344,7 +1398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>G5+$J$1</f>
         <v>14</v>
@@ -1374,7 +1428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:A18" si="1">G6+$J$1</f>
         <v>21</v>
@@ -1404,7 +1458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1434,7 +1488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1464,7 +1518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1494,7 +1548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1524,7 +1578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1554,7 +1608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1584,7 +1638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1614,7 +1668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1644,7 +1698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1674,7 +1728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -1704,7 +1758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -1734,7 +1788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>G18+$J$1</f>
         <v>105</v>
@@ -1764,7 +1818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>G19+$J$1</f>
         <v>112</v>
@@ -1794,7 +1848,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ref="A21:A27" si="16">G20+$J$1</f>
         <v>119</v>
@@ -1824,7 +1878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="16"/>
         <v>126</v>
@@ -1854,7 +1908,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="16"/>
         <v>133</v>
@@ -1884,7 +1938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="16"/>
         <v>140</v>
@@ -1914,7 +1968,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="16"/>
         <v>147</v>
@@ -1944,7 +1998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="16"/>
         <v>154</v>
@@ -1974,7 +2028,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="16"/>
         <v>161</v>
@@ -2004,7 +2058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>G27+$J$1</f>
         <v>168</v>
@@ -2034,7 +2088,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>G28+$J$1</f>
         <v>175</v>
@@ -2064,7 +2118,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30:A34" si="26">G29+$J$1</f>
         <v>182</v>
@@ -2094,7 +2148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="26"/>
         <v>189</v>
@@ -2124,7 +2178,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="26"/>
         <v>196</v>
@@ -2154,7 +2208,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="26"/>
         <v>203</v>
@@ -2184,7 +2238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="26"/>
         <v>210</v>
@@ -2214,7 +2268,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>G34+$J$1</f>
         <v>217</v>
@@ -2244,7 +2298,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>G35+$J$1</f>
         <v>224</v>
@@ -2274,7 +2328,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:A41" si="34">G36+$J$1</f>
         <v>231</v>
@@ -2304,7 +2358,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="34"/>
         <v>238</v>
@@ -2334,7 +2388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="34"/>
         <v>245</v>
@@ -2364,7 +2418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="34"/>
         <v>252</v>
@@ -2394,7 +2448,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="34"/>
         <v>259</v>
@@ -2424,7 +2478,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>G41+$J$1</f>
         <v>266</v>
@@ -2454,7 +2508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>G42+$J$1</f>
         <v>273</v>
@@ -2484,7 +2538,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ref="A44:A49" si="42">G43+$J$1</f>
         <v>280</v>
@@ -2514,7 +2568,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="42"/>
         <v>287</v>
@@ -2544,7 +2598,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="42"/>
         <v>294</v>
@@ -2574,7 +2628,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="42"/>
         <v>301</v>
@@ -2604,7 +2658,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="42"/>
         <v>308</v>
@@ -2634,7 +2688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="42"/>
         <v>315</v>
@@ -2664,7 +2718,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>G49+$J$1</f>
         <v>322</v>
@@ -2694,7 +2748,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>G50+$J$1</f>
         <v>329</v>
@@ -2724,7 +2778,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ref="A52:A63" si="51">G51+$J$1</f>
         <v>336</v>
@@ -2754,7 +2808,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="51"/>
         <v>343</v>
@@ -2784,7 +2838,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="51"/>
         <v>350</v>
@@ -2814,7 +2868,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="51"/>
         <v>357</v>
@@ -2844,7 +2898,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="51"/>
         <v>364</v>
@@ -2874,7 +2928,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="51"/>
         <v>371</v>
@@ -2904,7 +2958,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="51"/>
         <v>378</v>
@@ -2934,7 +2988,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="51"/>
         <v>385</v>
@@ -2964,7 +3018,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="51"/>
         <v>392</v>
@@ -2994,7 +3048,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="51"/>
         <v>399</v>
@@ -3024,7 +3078,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="51"/>
         <v>406</v>
@@ -3054,7 +3108,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="51"/>
         <v>413</v>
@@ -3084,7 +3138,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>G63+$J$1</f>
         <v>420</v>
@@ -3114,7 +3168,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>G64+$J$1</f>
         <v>427</v>
@@ -3144,7 +3198,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A77" si="66">G65+$J$1</f>
         <v>434</v>
@@ -3174,7 +3228,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="66"/>
         <v>441</v>
@@ -3204,7 +3258,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="66"/>
         <v>448</v>
@@ -3234,7 +3288,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="66"/>
         <v>455</v>
@@ -3264,7 +3318,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="66"/>
         <v>462</v>
@@ -3294,7 +3348,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="66"/>
         <v>469</v>
@@ -3324,7 +3378,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="66"/>
         <v>476</v>
@@ -3354,7 +3408,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="66"/>
         <v>483</v>
@@ -3384,7 +3438,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="66"/>
         <v>490</v>
@@ -3414,7 +3468,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="66"/>
         <v>497</v>
@@ -3444,7 +3498,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="66"/>
         <v>504</v>
@@ -3474,7 +3528,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="66"/>
         <v>511</v>
@@ -3504,7 +3558,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>G77+$J$1</f>
         <v>518</v>
@@ -3534,7 +3588,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>G78+$J$1</f>
         <v>525</v>
@@ -3564,7 +3618,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>G79+$J$1</f>
         <v>532</v>
@@ -3594,7 +3648,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ref="A81:A92" si="82">G80+$J$1</f>
         <v>539</v>
@@ -3624,7 +3678,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="82"/>
         <v>546</v>
@@ -3654,7 +3708,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="82"/>
         <v>553</v>
@@ -3684,7 +3738,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="82"/>
         <v>560</v>
@@ -3714,7 +3768,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="82"/>
         <v>567</v>
@@ -3744,7 +3798,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="82"/>
         <v>574</v>
@@ -3774,7 +3828,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="82"/>
         <v>581</v>
@@ -3804,7 +3858,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="82"/>
         <v>588</v>
@@ -3834,7 +3888,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="82"/>
         <v>595</v>
@@ -3864,7 +3918,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="82"/>
         <v>602</v>
@@ -3894,7 +3948,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="82"/>
         <v>609</v>
@@ -3924,7 +3978,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="82"/>
         <v>616</v>
@@ -3954,7 +4008,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>G92+$J$1</f>
         <v>623</v>
@@ -3984,7 +4038,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>G93+$J$1</f>
         <v>630</v>
@@ -4014,7 +4068,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>G94+$J$1</f>
         <v>637</v>
@@ -4044,7 +4098,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>G95+$J$1</f>
         <v>644</v>
@@ -4074,7 +4128,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ref="A97:A108" si="99">G96+$J$1</f>
         <v>651</v>
@@ -4104,7 +4158,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="99"/>
         <v>658</v>
@@ -4134,7 +4188,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="99"/>
         <v>665</v>
@@ -4164,7 +4218,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="99"/>
         <v>672</v>
@@ -4194,7 +4248,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="99"/>
         <v>679</v>
@@ -4224,7 +4278,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="99"/>
         <v>686</v>
@@ -4254,7 +4308,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="99"/>
         <v>693</v>
@@ -4284,7 +4338,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="99"/>
         <v>700</v>
@@ -4314,7 +4368,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="99"/>
         <v>707</v>
@@ -4344,7 +4398,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="99"/>
         <v>714</v>
@@ -4374,7 +4428,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="99"/>
         <v>721</v>
@@ -4404,7 +4458,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="99"/>
         <v>728</v>
@@ -4434,7 +4488,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>G108+$J$1</f>
         <v>735</v>
@@ -4464,7 +4518,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>G109+$J$1</f>
         <v>742</v>
@@ -4494,7 +4548,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ref="A111:A112" si="114">G110+$J$1</f>
         <v>749</v>
@@ -4524,7 +4578,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="114"/>
         <v>756</v>
@@ -4554,7 +4608,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>G112+$J$1</f>
         <v>763</v>
@@ -4584,7 +4638,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>G113+$J$1</f>
         <v>770</v>
@@ -4614,7 +4668,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ref="A115:A126" si="119">G114+$J$1</f>
         <v>777</v>
@@ -4644,7 +4698,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="119"/>
         <v>784</v>
@@ -4674,7 +4728,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="119"/>
         <v>791</v>
@@ -4704,7 +4758,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="119"/>
         <v>798</v>
@@ -4734,7 +4788,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="119"/>
         <v>805</v>
@@ -4764,7 +4818,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="119"/>
         <v>812</v>
@@ -4794,7 +4848,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="119"/>
         <v>819</v>
@@ -4824,7 +4878,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="119"/>
         <v>826</v>
@@ -4854,7 +4908,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="119"/>
         <v>833</v>
@@ -4884,7 +4938,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="119"/>
         <v>840</v>
@@ -4914,7 +4968,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="119"/>
         <v>847</v>
@@ -4944,7 +4998,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="119"/>
         <v>854</v>
@@ -4974,7 +5028,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>G126+$J$1</f>
         <v>861</v>
@@ -5004,7 +5058,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>G127+$J$1</f>
         <v>868</v>
@@ -5034,7 +5088,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ref="A129" si="134">G128+$J$1</f>
         <v>875</v>
@@ -5064,7 +5118,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>G129+$J$1</f>
         <v>882</v>
@@ -5094,7 +5148,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>G130+$J$1</f>
         <v>889</v>
@@ -5124,7 +5178,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A141" si="138">G131+$J$1</f>
         <v>896</v>
@@ -5154,7 +5208,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="138"/>
         <v>903</v>
@@ -5184,7 +5238,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="138"/>
         <v>910</v>
@@ -5214,7 +5268,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="138"/>
         <v>917</v>
@@ -5244,7 +5298,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="138"/>
         <v>924</v>
@@ -5274,7 +5328,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="138"/>
         <v>931</v>
@@ -5304,7 +5358,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="138"/>
         <v>938</v>
@@ -5334,7 +5388,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="138"/>
         <v>945</v>
@@ -5364,7 +5418,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="138"/>
         <v>952</v>
@@ -5394,7 +5448,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="138"/>
         <v>959</v>
@@ -5424,7 +5478,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>G141+$J$1</f>
         <v>966</v>
@@ -5454,7 +5508,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>G142+$J$1</f>
         <v>973</v>
@@ -5484,7 +5538,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>G143+$J$1</f>
         <v>980</v>
@@ -5514,7 +5568,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>G144+$J$1</f>
         <v>987</v>
@@ -5544,7 +5598,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ref="A146" si="153">G145+$J$1</f>
         <v>994</v>

--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxh5037\OneDrive - The Home Depot\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6776A57A-5C44-4ED9-936A-668691EFC665}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -219,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -342,16 +341,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Topic"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub_Topic_1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sub_Topic_2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Due"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notes"/>
+    <tableColumn id="1" name="Module"/>
+    <tableColumn id="2" name="Topic"/>
+    <tableColumn id="3" name="Sub_Topic_1"/>
+    <tableColumn id="4" name="Sub_Topic_2"/>
+    <tableColumn id="5" name="Due"/>
+    <tableColumn id="6" name="Status"/>
+    <tableColumn id="7" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -653,25 +652,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +693,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -708,7 +707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -720,7 +719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -732,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -744,7 +743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -756,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -768,7 +767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -780,7 +779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -792,7 +791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -804,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -816,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -828,7 +827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -840,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -852,7 +851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -864,7 +863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -876,7 +875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -885,10 +884,10 @@
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -900,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -912,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -924,7 +923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -936,7 +935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -948,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -960,7 +959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -972,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -984,7 +983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -996,7 +995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
@@ -1008,7 +1007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1020,7 +1019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1032,7 +1031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1044,7 +1043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1056,7 +1055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1068,7 +1067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1080,7 +1079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1092,7 +1091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
@@ -1104,7 +1103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1116,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
@@ -1128,7 +1127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1140,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1152,7 +1151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>19</v>
@@ -1166,7 +1165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" t="s">
@@ -1178,7 +1177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" t="s">
@@ -1190,7 +1189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
@@ -1202,7 +1201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1212,7 +1211,7 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1220,7 +1219,7 @@
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -1228,7 +1227,7 @@
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1236,7 +1235,7 @@
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1268,18 +1267,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D19" r:id="rId10" xr:uid="{A84CFE0E-FA02-4A39-B2E8-3B208C523982}"/>
-    <hyperlink ref="D17" r:id="rId11" xr:uid="{082B04D0-A85C-411D-A2AD-3A4399EFCA13}"/>
-    <hyperlink ref="D16" r:id="rId12" xr:uid="{CABB85A8-5AF7-436C-830A-E690BA8B4357}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D14" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D11" r:id="rId9"/>
+    <hyperlink ref="D19" r:id="rId10"/>
+    <hyperlink ref="D17" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
@@ -1290,16 +1289,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>G4+$J$1</f>
         <v>7</v>
@@ -1398,7 +1397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>G5+$J$1</f>
         <v>14</v>
@@ -1428,7 +1427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" ref="A7:A18" si="1">G6+$J$1</f>
         <v>21</v>
@@ -1458,7 +1457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1488,7 +1487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1518,7 +1517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1548,7 +1547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1578,7 +1577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1608,7 +1607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1638,7 +1637,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1668,7 +1667,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1698,7 +1697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1728,7 +1727,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -1758,7 +1757,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -1788,7 +1787,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>G18+$J$1</f>
         <v>105</v>
@@ -1818,7 +1817,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>G19+$J$1</f>
         <v>112</v>
@@ -1848,7 +1847,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" ref="A21:A27" si="16">G20+$J$1</f>
         <v>119</v>
@@ -1878,7 +1877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="16"/>
         <v>126</v>
@@ -1908,7 +1907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="16"/>
         <v>133</v>
@@ -1938,7 +1937,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="16"/>
         <v>140</v>
@@ -1968,7 +1967,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="16"/>
         <v>147</v>
@@ -1998,7 +1997,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="16"/>
         <v>154</v>
@@ -2028,7 +2027,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="16"/>
         <v>161</v>
@@ -2058,7 +2057,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>G27+$J$1</f>
         <v>168</v>
@@ -2088,7 +2087,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>G28+$J$1</f>
         <v>175</v>
@@ -2118,7 +2117,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" ref="A30:A34" si="26">G29+$J$1</f>
         <v>182</v>
@@ -2148,7 +2147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="26"/>
         <v>189</v>
@@ -2178,7 +2177,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="26"/>
         <v>196</v>
@@ -2208,7 +2207,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="26"/>
         <v>203</v>
@@ -2238,7 +2237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="26"/>
         <v>210</v>
@@ -2268,7 +2267,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>G34+$J$1</f>
         <v>217</v>
@@ -2298,7 +2297,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>G35+$J$1</f>
         <v>224</v>
@@ -2328,7 +2327,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" ref="A37:A41" si="34">G36+$J$1</f>
         <v>231</v>
@@ -2358,7 +2357,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="34"/>
         <v>238</v>
@@ -2388,7 +2387,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="34"/>
         <v>245</v>
@@ -2418,7 +2417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="34"/>
         <v>252</v>
@@ -2448,7 +2447,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="34"/>
         <v>259</v>
@@ -2478,7 +2477,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>G41+$J$1</f>
         <v>266</v>
@@ -2508,7 +2507,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>G42+$J$1</f>
         <v>273</v>
@@ -2538,7 +2537,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" ref="A44:A49" si="42">G43+$J$1</f>
         <v>280</v>
@@ -2568,7 +2567,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="42"/>
         <v>287</v>
@@ -2598,7 +2597,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="42"/>
         <v>294</v>
@@ -2628,7 +2627,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="42"/>
         <v>301</v>
@@ -2658,7 +2657,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="42"/>
         <v>308</v>
@@ -2688,7 +2687,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="42"/>
         <v>315</v>
@@ -2718,7 +2717,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>G49+$J$1</f>
         <v>322</v>
@@ -2748,7 +2747,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>G50+$J$1</f>
         <v>329</v>
@@ -2778,7 +2777,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" ref="A52:A63" si="51">G51+$J$1</f>
         <v>336</v>
@@ -2808,7 +2807,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="51"/>
         <v>343</v>
@@ -2838,7 +2837,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="51"/>
         <v>350</v>
@@ -2868,7 +2867,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="51"/>
         <v>357</v>
@@ -2898,7 +2897,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="51"/>
         <v>364</v>
@@ -2928,7 +2927,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="51"/>
         <v>371</v>
@@ -2958,7 +2957,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="51"/>
         <v>378</v>
@@ -2988,7 +2987,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="51"/>
         <v>385</v>
@@ -3018,7 +3017,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="51"/>
         <v>392</v>
@@ -3048,7 +3047,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="51"/>
         <v>399</v>
@@ -3078,7 +3077,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="51"/>
         <v>406</v>
@@ -3108,7 +3107,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="51"/>
         <v>413</v>
@@ -3138,7 +3137,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>G63+$J$1</f>
         <v>420</v>
@@ -3168,7 +3167,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <f>G64+$J$1</f>
         <v>427</v>
@@ -3198,7 +3197,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" ref="A66:A77" si="66">G65+$J$1</f>
         <v>434</v>
@@ -3228,7 +3227,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="66"/>
         <v>441</v>
@@ -3258,7 +3257,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="66"/>
         <v>448</v>
@@ -3288,7 +3287,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="66"/>
         <v>455</v>
@@ -3318,7 +3317,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="66"/>
         <v>462</v>
@@ -3348,7 +3347,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="66"/>
         <v>469</v>
@@ -3378,7 +3377,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="66"/>
         <v>476</v>
@@ -3408,7 +3407,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="66"/>
         <v>483</v>
@@ -3438,7 +3437,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="66"/>
         <v>490</v>
@@ -3468,7 +3467,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="66"/>
         <v>497</v>
@@ -3498,7 +3497,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="66"/>
         <v>504</v>
@@ -3528,7 +3527,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="66"/>
         <v>511</v>
@@ -3558,7 +3557,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>G77+$J$1</f>
         <v>518</v>
@@ -3588,7 +3587,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <f>G78+$J$1</f>
         <v>525</v>
@@ -3618,7 +3617,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <f>G79+$J$1</f>
         <v>532</v>
@@ -3648,7 +3647,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" ref="A81:A92" si="82">G80+$J$1</f>
         <v>539</v>
@@ -3678,7 +3677,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="82"/>
         <v>546</v>
@@ -3708,7 +3707,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="82"/>
         <v>553</v>
@@ -3738,7 +3737,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="82"/>
         <v>560</v>
@@ -3768,7 +3767,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="82"/>
         <v>567</v>
@@ -3798,7 +3797,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="82"/>
         <v>574</v>
@@ -3828,7 +3827,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="82"/>
         <v>581</v>
@@ -3858,7 +3857,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="82"/>
         <v>588</v>
@@ -3888,7 +3887,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="82"/>
         <v>595</v>
@@ -3918,7 +3917,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="82"/>
         <v>602</v>
@@ -3948,7 +3947,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="82"/>
         <v>609</v>
@@ -3978,7 +3977,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="82"/>
         <v>616</v>
@@ -4008,7 +4007,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <f>G92+$J$1</f>
         <v>623</v>
@@ -4038,7 +4037,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <f>G93+$J$1</f>
         <v>630</v>
@@ -4068,7 +4067,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <f>G94+$J$1</f>
         <v>637</v>
@@ -4098,7 +4097,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <f>G95+$J$1</f>
         <v>644</v>
@@ -4128,7 +4127,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" ref="A97:A108" si="99">G96+$J$1</f>
         <v>651</v>
@@ -4158,7 +4157,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="99"/>
         <v>658</v>
@@ -4188,7 +4187,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="99"/>
         <v>665</v>
@@ -4218,7 +4217,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="99"/>
         <v>672</v>
@@ -4248,7 +4247,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="99"/>
         <v>679</v>
@@ -4278,7 +4277,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="99"/>
         <v>686</v>
@@ -4308,7 +4307,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="99"/>
         <v>693</v>
@@ -4338,7 +4337,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="99"/>
         <v>700</v>
@@ -4368,7 +4367,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="99"/>
         <v>707</v>
@@ -4398,7 +4397,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="99"/>
         <v>714</v>
@@ -4428,7 +4427,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="99"/>
         <v>721</v>
@@ -4458,7 +4457,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="99"/>
         <v>728</v>
@@ -4488,7 +4487,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <f>G108+$J$1</f>
         <v>735</v>
@@ -4518,7 +4517,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <f>G109+$J$1</f>
         <v>742</v>
@@ -4548,7 +4547,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" ref="A111:A112" si="114">G110+$J$1</f>
         <v>749</v>
@@ -4578,7 +4577,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="114"/>
         <v>756</v>
@@ -4608,7 +4607,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <f>G112+$J$1</f>
         <v>763</v>
@@ -4638,7 +4637,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <f>G113+$J$1</f>
         <v>770</v>
@@ -4668,7 +4667,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" ref="A115:A126" si="119">G114+$J$1</f>
         <v>777</v>
@@ -4698,7 +4697,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="119"/>
         <v>784</v>
@@ -4728,7 +4727,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="119"/>
         <v>791</v>
@@ -4758,7 +4757,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="119"/>
         <v>798</v>
@@ -4788,7 +4787,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="119"/>
         <v>805</v>
@@ -4818,7 +4817,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="119"/>
         <v>812</v>
@@ -4848,7 +4847,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="119"/>
         <v>819</v>
@@ -4878,7 +4877,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="119"/>
         <v>826</v>
@@ -4908,7 +4907,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="119"/>
         <v>833</v>
@@ -4938,7 +4937,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="119"/>
         <v>840</v>
@@ -4968,7 +4967,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="119"/>
         <v>847</v>
@@ -4998,7 +4997,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="119"/>
         <v>854</v>
@@ -5028,7 +5027,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <f>G126+$J$1</f>
         <v>861</v>
@@ -5058,7 +5057,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <f>G127+$J$1</f>
         <v>868</v>
@@ -5088,7 +5087,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" ref="A129" si="134">G128+$J$1</f>
         <v>875</v>
@@ -5118,7 +5117,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <f>G129+$J$1</f>
         <v>882</v>
@@ -5148,7 +5147,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <f>G130+$J$1</f>
         <v>889</v>
@@ -5178,7 +5177,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" ref="A132:A141" si="138">G131+$J$1</f>
         <v>896</v>
@@ -5208,7 +5207,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="138"/>
         <v>903</v>
@@ -5238,7 +5237,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="138"/>
         <v>910</v>
@@ -5268,7 +5267,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="138"/>
         <v>917</v>
@@ -5298,7 +5297,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="138"/>
         <v>924</v>
@@ -5328,7 +5327,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="138"/>
         <v>931</v>
@@ -5358,7 +5357,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="138"/>
         <v>938</v>
@@ -5388,7 +5387,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="138"/>
         <v>945</v>
@@ -5418,7 +5417,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="138"/>
         <v>952</v>
@@ -5448,7 +5447,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="138"/>
         <v>959</v>
@@ -5478,7 +5477,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <f>G141+$J$1</f>
         <v>966</v>
@@ -5508,7 +5507,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <f>G142+$J$1</f>
         <v>973</v>
@@ -5538,7 +5537,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <f>G143+$J$1</f>
         <v>980</v>
@@ -5568,7 +5567,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <f>G144+$J$1</f>
         <v>987</v>
@@ -5598,7 +5597,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" ref="A146" si="153">G145+$J$1</f>
         <v>994</v>

--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cxh5037\OneDrive - The Home Depot\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD2897-B84A-49E4-BE63-6AC0C698103A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,16 +342,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Module"/>
-    <tableColumn id="2" name="Topic"/>
-    <tableColumn id="3" name="Sub_Topic_1"/>
-    <tableColumn id="4" name="Sub_Topic_2"/>
-    <tableColumn id="5" name="Due"/>
-    <tableColumn id="6" name="Status"/>
-    <tableColumn id="7" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Module"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Topic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub_Topic_1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sub_Topic_2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Due"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Status"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,25 +653,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +694,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -707,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -719,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -731,7 +732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -743,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -755,7 +756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -767,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -779,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" t="s">
@@ -791,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -803,7 +804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -815,7 +816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -827,7 +828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -839,7 +840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -851,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
@@ -863,7 +864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -872,10 +873,10 @@
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -887,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -899,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -911,7 +912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
@@ -923,7 +924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -935,7 +936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -947,7 +948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -959,7 +960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -971,7 +972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -983,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
@@ -995,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27" t="s">
@@ -1007,7 +1008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1019,7 +1020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1031,7 +1032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1043,7 +1044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1055,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1067,7 +1068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1079,7 +1080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -1091,7 +1092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
@@ -1103,7 +1104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1115,7 +1116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37" t="s">
@@ -1127,7 +1128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -1139,7 +1140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -1151,7 +1152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40" t="s">
         <v>19</v>
@@ -1165,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" t="s">
@@ -1177,7 +1178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" t="s">
@@ -1189,7 +1190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
@@ -1201,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1211,7 +1212,7 @@
       <c r="E44"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1219,7 +1220,7 @@
       <c r="E45"/>
       <c r="F45"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -1227,7 +1228,7 @@
       <c r="E46"/>
       <c r="F46"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1235,7 +1236,7 @@
       <c r="E47"/>
       <c r="F47"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -1267,18 +1268,18 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D8" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D14" r:id="rId7"/>
-    <hyperlink ref="D13" r:id="rId8"/>
-    <hyperlink ref="D11" r:id="rId9"/>
-    <hyperlink ref="D19" r:id="rId10"/>
-    <hyperlink ref="D17" r:id="rId11"/>
-    <hyperlink ref="D16" r:id="rId12"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
@@ -1289,16 +1290,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>G4+$J$1</f>
         <v>7</v>
@@ -1397,7 +1398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>G5+$J$1</f>
         <v>14</v>
@@ -1427,7 +1428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7:A18" si="1">G6+$J$1</f>
         <v>21</v>
@@ -1457,7 +1458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1487,7 +1488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1517,7 +1518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -1547,7 +1548,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -1577,7 +1578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -1607,7 +1608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -1637,7 +1638,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -1667,7 +1668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -1697,7 +1698,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -1727,7 +1728,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -1757,7 +1758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -1787,7 +1788,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>G18+$J$1</f>
         <v>105</v>
@@ -1817,7 +1818,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>G19+$J$1</f>
         <v>112</v>
@@ -1847,7 +1848,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ref="A21:A27" si="16">G20+$J$1</f>
         <v>119</v>
@@ -1877,7 +1878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="16"/>
         <v>126</v>
@@ -1907,7 +1908,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="16"/>
         <v>133</v>
@@ -1937,7 +1938,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="16"/>
         <v>140</v>
@@ -1967,7 +1968,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="16"/>
         <v>147</v>
@@ -1997,7 +1998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="16"/>
         <v>154</v>
@@ -2027,7 +2028,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="16"/>
         <v>161</v>
@@ -2057,7 +2058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>G27+$J$1</f>
         <v>168</v>
@@ -2087,7 +2088,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>G28+$J$1</f>
         <v>175</v>
@@ -2117,7 +2118,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30:A34" si="26">G29+$J$1</f>
         <v>182</v>
@@ -2147,7 +2148,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="26"/>
         <v>189</v>
@@ -2177,7 +2178,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="26"/>
         <v>196</v>
@@ -2207,7 +2208,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="26"/>
         <v>203</v>
@@ -2237,7 +2238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="26"/>
         <v>210</v>
@@ -2267,7 +2268,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>G34+$J$1</f>
         <v>217</v>
@@ -2297,7 +2298,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>G35+$J$1</f>
         <v>224</v>
@@ -2327,7 +2328,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37:A41" si="34">G36+$J$1</f>
         <v>231</v>
@@ -2357,7 +2358,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="34"/>
         <v>238</v>
@@ -2387,7 +2388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="34"/>
         <v>245</v>
@@ -2417,7 +2418,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="34"/>
         <v>252</v>
@@ -2447,7 +2448,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="34"/>
         <v>259</v>
@@ -2477,7 +2478,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>G41+$J$1</f>
         <v>266</v>
@@ -2507,7 +2508,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>G42+$J$1</f>
         <v>273</v>
@@ -2537,7 +2538,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ref="A44:A49" si="42">G43+$J$1</f>
         <v>280</v>
@@ -2567,7 +2568,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="42"/>
         <v>287</v>
@@ -2597,7 +2598,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="42"/>
         <v>294</v>
@@ -2627,7 +2628,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="42"/>
         <v>301</v>
@@ -2657,7 +2658,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="42"/>
         <v>308</v>
@@ -2687,7 +2688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="42"/>
         <v>315</v>
@@ -2717,7 +2718,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>G49+$J$1</f>
         <v>322</v>
@@ -2747,7 +2748,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>G50+$J$1</f>
         <v>329</v>
@@ -2777,7 +2778,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ref="A52:A63" si="51">G51+$J$1</f>
         <v>336</v>
@@ -2807,7 +2808,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="51"/>
         <v>343</v>
@@ -2837,7 +2838,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="51"/>
         <v>350</v>
@@ -2867,7 +2868,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="51"/>
         <v>357</v>
@@ -2897,7 +2898,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="51"/>
         <v>364</v>
@@ -2927,7 +2928,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="51"/>
         <v>371</v>
@@ -2957,7 +2958,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="51"/>
         <v>378</v>
@@ -2987,7 +2988,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="51"/>
         <v>385</v>
@@ -3017,7 +3018,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="51"/>
         <v>392</v>
@@ -3047,7 +3048,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="51"/>
         <v>399</v>
@@ -3077,7 +3078,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="51"/>
         <v>406</v>
@@ -3107,7 +3108,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="51"/>
         <v>413</v>
@@ -3137,7 +3138,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>G63+$J$1</f>
         <v>420</v>
@@ -3167,7 +3168,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>G64+$J$1</f>
         <v>427</v>
@@ -3197,7 +3198,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66:A77" si="66">G65+$J$1</f>
         <v>434</v>
@@ -3227,7 +3228,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="66"/>
         <v>441</v>
@@ -3257,7 +3258,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="66"/>
         <v>448</v>
@@ -3287,7 +3288,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="66"/>
         <v>455</v>
@@ -3317,7 +3318,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="66"/>
         <v>462</v>
@@ -3347,7 +3348,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="66"/>
         <v>469</v>
@@ -3377,7 +3378,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="66"/>
         <v>476</v>
@@ -3407,7 +3408,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="66"/>
         <v>483</v>
@@ -3437,7 +3438,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="66"/>
         <v>490</v>
@@ -3467,7 +3468,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="66"/>
         <v>497</v>
@@ -3497,7 +3498,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="66"/>
         <v>504</v>
@@ -3527,7 +3528,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="66"/>
         <v>511</v>
@@ -3557,7 +3558,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f>G77+$J$1</f>
         <v>518</v>
@@ -3587,7 +3588,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f>G78+$J$1</f>
         <v>525</v>
@@ -3617,7 +3618,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f>G79+$J$1</f>
         <v>532</v>
@@ -3647,7 +3648,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ref="A81:A92" si="82">G80+$J$1</f>
         <v>539</v>
@@ -3677,7 +3678,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="82"/>
         <v>546</v>
@@ -3707,7 +3708,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="82"/>
         <v>553</v>
@@ -3737,7 +3738,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="82"/>
         <v>560</v>
@@ -3767,7 +3768,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="82"/>
         <v>567</v>
@@ -3797,7 +3798,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="82"/>
         <v>574</v>
@@ -3827,7 +3828,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="82"/>
         <v>581</v>
@@ -3857,7 +3858,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="82"/>
         <v>588</v>
@@ -3887,7 +3888,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="82"/>
         <v>595</v>
@@ -3917,7 +3918,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="82"/>
         <v>602</v>
@@ -3947,7 +3948,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="82"/>
         <v>609</v>
@@ -3977,7 +3978,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="82"/>
         <v>616</v>
@@ -4007,7 +4008,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f>G92+$J$1</f>
         <v>623</v>
@@ -4037,7 +4038,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f>G93+$J$1</f>
         <v>630</v>
@@ -4067,7 +4068,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f>G94+$J$1</f>
         <v>637</v>
@@ -4097,7 +4098,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f>G95+$J$1</f>
         <v>644</v>
@@ -4127,7 +4128,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ref="A97:A108" si="99">G96+$J$1</f>
         <v>651</v>
@@ -4157,7 +4158,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="99"/>
         <v>658</v>
@@ -4187,7 +4188,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="99"/>
         <v>665</v>
@@ -4217,7 +4218,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="99"/>
         <v>672</v>
@@ -4247,7 +4248,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="99"/>
         <v>679</v>
@@ -4277,7 +4278,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="99"/>
         <v>686</v>
@@ -4307,7 +4308,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="99"/>
         <v>693</v>
@@ -4337,7 +4338,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="99"/>
         <v>700</v>
@@ -4367,7 +4368,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="99"/>
         <v>707</v>
@@ -4397,7 +4398,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="99"/>
         <v>714</v>
@@ -4427,7 +4428,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="99"/>
         <v>721</v>
@@ -4457,7 +4458,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="99"/>
         <v>728</v>
@@ -4487,7 +4488,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f>G108+$J$1</f>
         <v>735</v>
@@ -4517,7 +4518,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f>G109+$J$1</f>
         <v>742</v>
@@ -4547,7 +4548,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ref="A111:A112" si="114">G110+$J$1</f>
         <v>749</v>
@@ -4577,7 +4578,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="114"/>
         <v>756</v>
@@ -4607,7 +4608,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <f>G112+$J$1</f>
         <v>763</v>
@@ -4637,7 +4638,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <f>G113+$J$1</f>
         <v>770</v>
@@ -4667,7 +4668,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ref="A115:A126" si="119">G114+$J$1</f>
         <v>777</v>
@@ -4697,7 +4698,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="119"/>
         <v>784</v>
@@ -4727,7 +4728,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="119"/>
         <v>791</v>
@@ -4757,7 +4758,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="119"/>
         <v>798</v>
@@ -4787,7 +4788,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="119"/>
         <v>805</v>
@@ -4817,7 +4818,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="119"/>
         <v>812</v>
@@ -4847,7 +4848,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="119"/>
         <v>819</v>
@@ -4877,7 +4878,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="119"/>
         <v>826</v>
@@ -4907,7 +4908,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="119"/>
         <v>833</v>
@@ -4937,7 +4938,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="119"/>
         <v>840</v>
@@ -4967,7 +4968,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="119"/>
         <v>847</v>
@@ -4997,7 +4998,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="119"/>
         <v>854</v>
@@ -5027,7 +5028,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <f>G126+$J$1</f>
         <v>861</v>
@@ -5057,7 +5058,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <f>G127+$J$1</f>
         <v>868</v>
@@ -5087,7 +5088,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ref="A129" si="134">G128+$J$1</f>
         <v>875</v>
@@ -5117,7 +5118,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <f>G129+$J$1</f>
         <v>882</v>
@@ -5147,7 +5148,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>G130+$J$1</f>
         <v>889</v>
@@ -5177,7 +5178,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A141" si="138">G131+$J$1</f>
         <v>896</v>
@@ -5207,7 +5208,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="138"/>
         <v>903</v>
@@ -5237,7 +5238,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="138"/>
         <v>910</v>
@@ -5267,7 +5268,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="138"/>
         <v>917</v>
@@ -5297,7 +5298,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="138"/>
         <v>924</v>
@@ -5327,7 +5328,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="138"/>
         <v>931</v>
@@ -5357,7 +5358,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="138"/>
         <v>938</v>
@@ -5387,7 +5388,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="138"/>
         <v>945</v>
@@ -5417,7 +5418,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="138"/>
         <v>952</v>
@@ -5447,7 +5448,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="138"/>
         <v>959</v>
@@ -5477,7 +5478,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <f>G141+$J$1</f>
         <v>966</v>
@@ -5507,7 +5508,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <f>G142+$J$1</f>
         <v>973</v>
@@ -5537,7 +5538,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <f>G143+$J$1</f>
         <v>980</v>
@@ -5567,7 +5568,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <f>G144+$J$1</f>
         <v>987</v>
@@ -5597,7 +5598,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ref="A146" si="153">G145+$J$1</f>
         <v>994</v>

--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD2897-B84A-49E4-BE63-6AC0C698103A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141C29F-A6A1-40B8-A9F1-28740AC955EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,7 +873,7 @@
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -909,7 +909,7 @@
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">

--- a/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
+++ b/Notes/EDX_GTx_CSE6040X_FA18_Computing_for_Data_Analysis-Schedule.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corey\Documents\GitHub\FA18_Intro_to_Computing_for_Data_Analysis\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3141C29F-A6A1-40B8-A9F1-28740AC955EB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBE945-E52E-4DEF-8219-73495152A8B2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>Module</t>
   </si>
@@ -144,9 +145,6 @@
     <t>ITCS: Lists</t>
   </si>
   <si>
-    <t>ITCS: Disctionaries</t>
-  </si>
-  <si>
     <t>TP: 10, 11, 12</t>
   </si>
   <si>
@@ -214,6 +212,30 @@
   </si>
   <si>
     <t>Part 2</t>
+  </si>
+  <si>
+    <t>ITCS: Dictionaries</t>
+  </si>
+  <si>
+    <t>Notebook 1</t>
+  </si>
+  <si>
+    <t>part0</t>
+  </si>
+  <si>
+    <t>part1</t>
+  </si>
+  <si>
+    <t>part2</t>
+  </si>
+  <si>
+    <t>Values, variables, types, lists, strings</t>
+  </si>
+  <si>
+    <t>Basic collection of values (tuples, disctionries, sets)</t>
+  </si>
+  <si>
+    <t>More exercises</t>
   </si>
 </sst>
 </file>
@@ -656,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +713,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -928,24 +950,24 @@
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" t="s">
-        <v>37</v>
+      <c r="D22" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -953,7 +975,7 @@
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
@@ -964,24 +986,24 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" t="s">
-        <v>39</v>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" t="s">
-        <v>40</v>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1013,7 +1035,7 @@
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
@@ -1025,7 +1047,7 @@
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
@@ -1037,7 +1059,7 @@
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
@@ -1049,7 +1071,7 @@
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
@@ -1061,7 +1083,7 @@
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
@@ -1073,7 +1095,7 @@
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
@@ -1085,7 +1107,7 @@
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
@@ -1109,7 +1131,7 @@
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
@@ -1133,7 +1155,7 @@
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
@@ -1145,7 +1167,7 @@
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
@@ -1170,7 +1192,7 @@
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1182,7 +1204,7 @@
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1194,7 +1216,7 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -1280,11 +1302,15 @@
     <hyperlink ref="D19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="D17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="D16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{8DD350D0-093F-42F2-87DF-ACC76AFC3DAE}"/>
+    <hyperlink ref="D22" r:id="rId14" xr:uid="{FC35B4AD-1F17-400E-9D7A-78D99B59D354}"/>
+    <hyperlink ref="D24" r:id="rId15" xr:uid="{A5CF3C20-1417-41ED-ADDC-CAD0537A19D8}"/>
+    <hyperlink ref="D25" r:id="rId16" xr:uid="{D6D8279D-17F7-4A33-A96F-DD4CBCFFC89C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1301,25 +1327,25 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
-      <c r="F1" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1">
         <v>1</v>
@@ -5631,4 +5657,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B807A5-9FF7-4D8C-B41B-66C7310711BC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>